--- a/src/test/java/HangTester/nopCommerce/DataTest/Product.xlsx
+++ b/src/test/java/HangTester/nopCommerce/DataTest/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\java\HangTester\nopCommerce\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB9EFB-E8AA-4CE5-840D-010C5A220D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA8D746-B487-4B07-826A-F9B7CDA5984F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Light Pink</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
@@ -458,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6246936-40E4-4C56-A76D-06EC9E6D09C9}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -512,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB9CCA2-68F4-4FF9-9839-17EE34592CB1}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>

--- a/src/test/java/HangTester/nopCommerce/DataTest/Product.xlsx
+++ b/src/test/java/HangTester/nopCommerce/DataTest/Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\java\HangTester\nopCommerce\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA8D746-B487-4B07-826A-F9B7CDA5984F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B161FD-2A56-4292-8BDB-6AEEE19CB3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
   </bookViews>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6246936-40E4-4C56-A76D-06EC9E6D09C9}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
